--- a/Peru Data Analysis/Fortran Input File/kelman_sheet.xlsx
+++ b/Peru Data Analysis/Fortran Input File/kelman_sheet.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Peru Data Analysis\Fortran Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F6FBA9-7A49-487B-A2A4-C536B0E7550B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1328A6-99A3-44EF-8901-E5B6091D7DD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E63EFAE-D2DF-4BAC-A226-4ACE07FA935A}"/>
   </bookViews>
   <sheets>
     <sheet name="Kelman_values" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -334,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -357,13 +354,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -474,6 +533,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1292,831 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Kelman_values!$A$6:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kelman_values!$G$6:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.1849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1669999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-548B-4313-BC02-B830B7C71776}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="663506768"/>
+        <c:axId val="663507728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="663506768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663507728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663507728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663506768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Kelman_values!$A$6:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>CMS02_PR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CMS02_PO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CMS03_PR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMS03_PO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMS04_PR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CMS04_PO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CMS05_PR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMS05_PO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CMS06_PR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CMS06_PO</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CMS07_PR</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CMS07_PO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CON01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CON02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CON03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CON04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>CON06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CON07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CON08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CON09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kelman_values!$U$6:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-17.307346273410076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.559141722273594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.938748210821899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.705654509928806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16.321196411265404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13.635125631928545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.287548854828358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.71956199843676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11.033697749715358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.002999912682256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14.601956468794484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-14.721287687743896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14.029539101628714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16.035963694836326</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.278993680465021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-13.078092556509887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12.37688168799761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.450307428447488</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-13.893064120040364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-18.738800495109942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD83-46F0-8031-BD7CED462EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="663509328"/>
+        <c:axId val="663510928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="663509328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663510928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663510928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663509328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1716,6 +2629,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1788,249 +3707,79 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDACF12E-70B4-4AD1-81D0-00E20FBC0893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328082</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6AB3CC-C285-4799-9BF2-8D047187AE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Kelman_values"/>
-      <sheetName val="Calc_CVO2CO2_values"/>
-      <sheetName val="PFROMC_values"/>
-      <sheetName val="NOTHETA_DL"/>
-      <sheetName val="NOTHETA_DM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>CMS02_PR</v>
-          </cell>
-          <cell r="U6">
-            <v>-17.307346273410076</v>
-          </cell>
-          <cell r="V6">
-            <v>-17</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>CMS02_PO</v>
-          </cell>
-          <cell r="U7">
-            <v>-13.559141722273594</v>
-          </cell>
-          <cell r="V7">
-            <v>-14</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>CMS03_PR</v>
-          </cell>
-          <cell r="U8">
-            <v>-13.938748210821899</v>
-          </cell>
-          <cell r="V8">
-            <v>-14.1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>CMS03_PO</v>
-          </cell>
-          <cell r="U9">
-            <v>-10.705654509928806</v>
-          </cell>
-          <cell r="V9">
-            <v>-11</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>CMS04_PR</v>
-          </cell>
-          <cell r="U10">
-            <v>-16.321196411265404</v>
-          </cell>
-          <cell r="V10">
-            <v>-14.95</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CMS04_PO</v>
-          </cell>
-          <cell r="U11">
-            <v>-13.635125631928545</v>
-          </cell>
-          <cell r="V11">
-            <v>-14.2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>CMS05_PR</v>
-          </cell>
-          <cell r="U12">
-            <v>-12.287548854828358</v>
-          </cell>
-          <cell r="V12">
-            <v>-12</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>CMS05_PO</v>
-          </cell>
-          <cell r="U13">
-            <v>-13.71956199843676</v>
-          </cell>
-          <cell r="V13">
-            <v>-13.95</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>CMS06_PR</v>
-          </cell>
-          <cell r="U14">
-            <v>-11.033697749715358</v>
-          </cell>
-          <cell r="V14">
-            <v>-11.05</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>CMS06_PO</v>
-          </cell>
-          <cell r="U15">
-            <v>-9.002999912682256</v>
-          </cell>
-          <cell r="V15">
-            <v>-9.0500000000000007</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>CMS07_PR</v>
-          </cell>
-          <cell r="U16">
-            <v>-14.601956468794484</v>
-          </cell>
-          <cell r="V16">
-            <v>-14.95</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>CMS07_PO</v>
-          </cell>
-          <cell r="U17">
-            <v>-14.721287687743896</v>
-          </cell>
-          <cell r="V17">
-            <v>-15</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>CON01</v>
-          </cell>
-          <cell r="U18">
-            <v>-14.029539101628714</v>
-          </cell>
-          <cell r="V18">
-            <v>-14.1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>CON02</v>
-          </cell>
-          <cell r="U19">
-            <v>-16.035963694836326</v>
-          </cell>
-          <cell r="V19">
-            <v>-15.6</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>CON03</v>
-          </cell>
-          <cell r="U20">
-            <v>-14.278993680465021</v>
-          </cell>
-          <cell r="V20">
-            <v>-14.6</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>CON04</v>
-          </cell>
-          <cell r="U21">
-            <v>-13.078092556509887</v>
-          </cell>
-          <cell r="V21">
-            <v>-14</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>CON06</v>
-          </cell>
-          <cell r="U22">
-            <v>-12.37688168799761</v>
-          </cell>
-          <cell r="V22">
-            <v>-12.45</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>CON07</v>
-          </cell>
-          <cell r="U23">
-            <v>-11.450307428447488</v>
-          </cell>
-          <cell r="V23">
-            <v>-10.55</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>CON08</v>
-          </cell>
-          <cell r="U24">
-            <v>-13.893064120040364</v>
-          </cell>
-          <cell r="V24">
-            <v>-13.85</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>CON09</v>
-          </cell>
-          <cell r="U25">
-            <v>-18.738800495109942</v>
-          </cell>
-          <cell r="V25">
-            <v>-18.8</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2331,11 +4080,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C741289-2EA2-43BE-BFAB-5894B28EC4D8}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2364,7 +4113,7 @@
     <col min="24" max="16384" width="16.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +4180,7 @@
       </c>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2488,7 +4237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2552,7 +4301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2614,7 +4363,7 @@
       </c>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2632,7 +4381,7 @@
       <c r="P5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -2694,8 +4443,13 @@
         <v>-17</v>
       </c>
       <c r="W6" s="21"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X6" s="14"/>
+      <c r="Y6" s="38">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="Z6" s="44"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -2757,8 +4511,13 @@
         <v>-14</v>
       </c>
       <c r="W7" s="21"/>
-    </row>
-    <row r="8" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="14"/>
+      <c r="Y7" s="40">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="Z7" s="45"/>
+    </row>
+    <row r="8" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
@@ -2820,8 +4579,13 @@
         <v>-14.1</v>
       </c>
       <c r="W8" s="27"/>
-    </row>
-    <row r="9" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="14"/>
+      <c r="Y8" s="40">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="Z8" s="41"/>
+    </row>
+    <row r="9" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>32</v>
       </c>
@@ -2883,8 +4647,13 @@
         <v>-11</v>
       </c>
       <c r="W9" s="27"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X9" s="14"/>
+      <c r="Y9" s="40">
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="Z9" s="41"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -2946,10 +4715,13 @@
         <v>-14.95</v>
       </c>
       <c r="W10" s="21"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="20"/>
-    </row>
-    <row r="11" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="14"/>
+      <c r="Y10" s="40">
+        <v>0.13999999999999968</v>
+      </c>
+      <c r="Z10" s="45"/>
+    </row>
+    <row r="11" spans="1:26" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>34</v>
       </c>
@@ -3011,10 +4783,16 @@
         <v>-14.2</v>
       </c>
       <c r="W11" s="27"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="20"/>
-    </row>
-    <row r="12" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="42">
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="Z11" s="46">
+        <f>AVERAGE(Y6:Y11)</f>
+        <v>0.13000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
@@ -3075,11 +4853,12 @@
       <c r="V12" s="26">
         <v>-12</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="20"/>
-    </row>
-    <row r="13" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="38">
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="X12" s="47"/>
+    </row>
+    <row r="13" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
@@ -3140,11 +4919,12 @@
       <c r="V13" s="26">
         <v>-13.95</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="25"/>
-    </row>
-    <row r="14" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W13" s="40">
+        <v>0.14999999999999947</v>
+      </c>
+      <c r="X13" s="41"/>
+    </row>
+    <row r="14" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>37</v>
       </c>
@@ -3205,11 +4985,12 @@
       <c r="V14" s="26">
         <v>-11.05</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="25"/>
-    </row>
-    <row r="15" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="40">
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="X14" s="41"/>
+    </row>
+    <row r="15" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
@@ -3270,11 +5051,12 @@
       <c r="V15" s="26">
         <v>-9.0500000000000007</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="25"/>
-    </row>
-    <row r="16" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W15" s="40">
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="X15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>39</v>
       </c>
@@ -3335,11 +5117,12 @@
       <c r="V16" s="26">
         <v>-14.95</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="25"/>
-    </row>
-    <row r="17" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W16" s="40">
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="X16" s="41"/>
+    </row>
+    <row r="17" spans="1:25" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>40</v>
       </c>
@@ -3400,9 +5183,13 @@
       <c r="V17" s="26">
         <v>-15</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="25"/>
+      <c r="W17" s="42">
+        <v>0.13999999999999968</v>
+      </c>
+      <c r="X17" s="46">
+        <f>AVERAGE(W12:W17)</f>
+        <v>0.14666666666666681</v>
+      </c>
     </row>
     <row r="18" spans="1:25" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
@@ -3466,6 +5253,14 @@
         <v>-14.1</v>
       </c>
       <c r="W18" s="35"/>
+      <c r="X18" s="40">
+        <f t="shared" ref="X7:X25" si="2">S18-T18</f>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="Y18" s="39">
+        <f>AVERAGE(X18:X25)</f>
+        <v>0.14624999999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
@@ -3529,6 +5324,11 @@
         <v>-15.6</v>
       </c>
       <c r="W19" s="27"/>
+      <c r="X19" s="40">
+        <f t="shared" si="2"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="Y19" s="41"/>
     </row>
     <row r="20" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
@@ -3592,6 +5392,11 @@
         <v>-14.6</v>
       </c>
       <c r="W20" s="27"/>
+      <c r="X20" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="Y20" s="41"/>
     </row>
     <row r="21" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
@@ -3655,6 +5460,11 @@
         <v>-14</v>
       </c>
       <c r="W21" s="27"/>
+      <c r="X21" s="40">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999947</v>
+      </c>
+      <c r="Y21" s="41"/>
     </row>
     <row r="22" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
@@ -3718,6 +5528,11 @@
         <v>-12.45</v>
       </c>
       <c r="W22" s="27"/>
+      <c r="X22" s="40">
+        <f t="shared" si="2"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="Y22" s="41"/>
     </row>
     <row r="23" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
@@ -3781,6 +5596,11 @@
         <v>-10.55</v>
       </c>
       <c r="W23" s="27"/>
+      <c r="X23" s="40">
+        <f t="shared" si="2"/>
+        <v>0.15999999999999925</v>
+      </c>
+      <c r="Y23" s="41"/>
     </row>
     <row r="24" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -3844,8 +5664,13 @@
         <v>-13.85</v>
       </c>
       <c r="W24" s="27"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X24" s="40">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="Y24" s="41"/>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -3907,6 +5732,11 @@
         <v>-18.8</v>
       </c>
       <c r="W25" s="21"/>
+      <c r="X25" s="42">
+        <f t="shared" si="2"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="Y25" s="43"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>

--- a/Peru Data Analysis/Fortran Input File/kelman_sheet.xlsx
+++ b/Peru Data Analysis/Fortran Input File/kelman_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\FORTRAN_Rewrite\Peru Data Analysis\Fortran Input File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1328A6-99A3-44EF-8901-E5B6091D7DD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A860256E-29A2-4D27-8591-9A1A4E794021}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E63EFAE-D2DF-4BAC-A226-4ACE07FA935A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24360" windowHeight="13005" xr2:uid="{3E63EFAE-D2DF-4BAC-A226-4ACE07FA935A}"/>
   </bookViews>
   <sheets>
     <sheet name="Kelman_values" sheetId="2" r:id="rId1"/>
@@ -4082,8 +4082,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="W18" s="35"/>
       <c r="X18" s="40">
-        <f t="shared" ref="X7:X25" si="2">S18-T18</f>
+        <f t="shared" ref="X18:X25" si="2">S18-T18</f>
         <v>0.15000000000000036</v>
       </c>
       <c r="Y18" s="39">
